--- a/Code/Results/Cases/Case_1_152/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_152/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8189363631216224</v>
+        <v>0.943272594242444</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.06058098417332758</v>
+        <v>0.03870760940133522</v>
       </c>
       <c r="E2">
-        <v>0.1956263453425526</v>
+        <v>0.4161238364381639</v>
       </c>
       <c r="F2">
-        <v>0.6053580210291614</v>
+        <v>0.8971675119293394</v>
       </c>
       <c r="G2">
-        <v>0.0008084176816423594</v>
+        <v>0.002450953031429082</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.318365622300036</v>
+        <v>0.4193065313855016</v>
       </c>
       <c r="L2">
-        <v>0.169275776840081</v>
+        <v>0.1014743244794687</v>
       </c>
       <c r="M2">
-        <v>0.1966321955019801</v>
+        <v>0.1850376212670142</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.852121662880336</v>
+        <v>3.165296745607179</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7342265094669642</v>
+        <v>0.9244307122180544</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.05582270978935355</v>
+        <v>0.03698799021369581</v>
       </c>
       <c r="E3">
-        <v>0.2015679534982708</v>
+        <v>0.4193255635418902</v>
       </c>
       <c r="F3">
-        <v>0.5747490450636334</v>
+        <v>0.8955381632624793</v>
       </c>
       <c r="G3">
-        <v>0.0008123228468062859</v>
+        <v>0.002453521676862919</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.175533787887048</v>
+        <v>0.3725909496973259</v>
       </c>
       <c r="L3">
-        <v>0.147336459075504</v>
+        <v>0.09557365558983122</v>
       </c>
       <c r="M3">
-        <v>0.173965072323039</v>
+        <v>0.1795559893245127</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.799931565208624</v>
+        <v>3.174041480071168</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.682881524986982</v>
+        <v>0.9132807804026584</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.05288931299885746</v>
+        <v>0.03592142722550307</v>
       </c>
       <c r="E4">
-        <v>0.2054013297830504</v>
+        <v>0.4214071962284116</v>
       </c>
       <c r="F4">
-        <v>0.5570690748238931</v>
+        <v>0.8950674147691657</v>
       </c>
       <c r="G4">
-        <v>0.0008148014649092086</v>
+        <v>0.002455184049081051</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.087714505992238</v>
+        <v>0.3437399356207607</v>
       </c>
       <c r="L4">
-        <v>0.133949266187031</v>
+        <v>0.09199092158220168</v>
       </c>
       <c r="M4">
-        <v>0.1601866478419893</v>
+        <v>0.1762727489467188</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.771525425390593</v>
+        <v>3.181173666974303</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6621137879101582</v>
+        <v>0.9088429278881449</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.05169073848694694</v>
+        <v>0.03548412297441672</v>
       </c>
       <c r="E5">
-        <v>0.2070096637046985</v>
+        <v>0.4222846344310827</v>
       </c>
       <c r="F5">
-        <v>0.5501300874786494</v>
+        <v>0.8950087838763565</v>
       </c>
       <c r="G5">
-        <v>0.0008158322022548776</v>
+        <v>0.002455882970570784</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.051886139170733</v>
+        <v>0.3319414112629602</v>
       </c>
       <c r="L5">
-        <v>0.128512132948515</v>
+        <v>0.09054113946716313</v>
       </c>
       <c r="M5">
-        <v>0.1546037848130979</v>
+        <v>0.174955652528002</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.760821924335062</v>
+        <v>3.184523339511458</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6586743891617743</v>
+        <v>0.9081124315833904</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.05149151706462618</v>
+        <v>0.03541134825013614</v>
       </c>
       <c r="E6">
-        <v>0.2072795062923527</v>
+        <v>0.4224320947188192</v>
       </c>
       <c r="F6">
-        <v>0.5489935164344644</v>
+        <v>0.8950070937166927</v>
       </c>
       <c r="G6">
-        <v>0.0008160046145468395</v>
+        <v>0.002456000325794779</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.045934060135238</v>
+        <v>0.329979786614274</v>
       </c>
       <c r="L6">
-        <v>0.1276103255147234</v>
+        <v>0.09030102325520062</v>
       </c>
       <c r="M6">
-        <v>0.1536785981934798</v>
+        <v>0.1747382120823211</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.759096085885858</v>
+        <v>3.18510631994593</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6826008287791865</v>
+        <v>0.913220500838321</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.05287316181251356</v>
+        <v>0.03591554037333822</v>
       </c>
       <c r="E7">
-        <v>0.2054228337424964</v>
+        <v>0.4214189115521401</v>
       </c>
       <c r="F7">
-        <v>0.5569744357456656</v>
+        <v>0.8950660847057819</v>
       </c>
       <c r="G7">
-        <v>0.0008148152815779922</v>
+        <v>0.002455193387829734</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.087231493518374</v>
+        <v>0.3435809838269108</v>
       </c>
       <c r="L7">
-        <v>0.1338758687450792</v>
+        <v>0.09197132786643891</v>
       </c>
       <c r="M7">
-        <v>0.1601112299429204</v>
+        <v>0.176254901561208</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.771377597593073</v>
+        <v>3.181217047196697</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7895824771130719</v>
+        <v>0.9366892046107012</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.05894263807527977</v>
+        <v>0.0381169201765772</v>
       </c>
       <c r="E8">
-        <v>0.1976363466024957</v>
+        <v>0.4172037947951948</v>
       </c>
       <c r="F8">
-        <v>0.5945639296113541</v>
+        <v>0.8964957815383414</v>
       </c>
       <c r="G8">
-        <v>0.0008097476246128175</v>
+        <v>0.002451821052386126</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.269135141542648</v>
+        <v>0.4032341042013741</v>
       </c>
       <c r="L8">
-        <v>0.1616920181454589</v>
+        <v>0.09943145369030049</v>
       </c>
       <c r="M8">
-        <v>0.1887857612556871</v>
+        <v>0.1831304913784173</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.833344865619807</v>
+        <v>3.167946011560929</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.005250705693896</v>
+        <v>0.9860194417835828</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.07076273601222738</v>
+        <v>0.04234806609404984</v>
       </c>
       <c r="E9">
-        <v>0.183853631849991</v>
+        <v>0.4098542642052543</v>
       </c>
       <c r="F9">
-        <v>0.6778052461180977</v>
+        <v>0.9035031342133806</v>
       </c>
       <c r="G9">
-        <v>0.0008004343911536017</v>
+        <v>0.002445881142974397</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.625450599361386</v>
+        <v>0.5188637703234917</v>
       </c>
       <c r="L9">
-        <v>0.2170383481502256</v>
+        <v>0.114377938829918</v>
       </c>
       <c r="M9">
-        <v>0.2462707258984338</v>
+        <v>0.1972644140758462</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.98577936153373</v>
+        <v>3.155914314167887</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.168160217497018</v>
+        <v>1.024261314769689</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.07941483168573171</v>
+        <v>0.04540364513427875</v>
       </c>
       <c r="E10">
-        <v>0.1746580822198762</v>
+        <v>0.4050100383975517</v>
       </c>
       <c r="F10">
-        <v>0.7457912331696122</v>
+        <v>0.9112175817117816</v>
       </c>
       <c r="G10">
-        <v>0.0007939476522758471</v>
+        <v>0.002441923445010364</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.887845040765512</v>
+        <v>0.6029734410539334</v>
       </c>
       <c r="L10">
-        <v>0.2583921204780069</v>
+        <v>0.125550265173203</v>
       </c>
       <c r="M10">
-        <v>0.2894935775174403</v>
+        <v>0.2080417054722901</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.119646442075492</v>
+        <v>3.15561650873596</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.243448633115861</v>
+        <v>1.042089125544521</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.08334827266462241</v>
+        <v>0.04678204418647169</v>
       </c>
       <c r="E11">
-        <v>0.1706825768109566</v>
+        <v>0.402926223650077</v>
       </c>
       <c r="F11">
-        <v>0.7784452991799071</v>
+        <v>0.9152851590207831</v>
       </c>
       <c r="G11">
-        <v>0.0007910680401168672</v>
+        <v>0.002440210357059396</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.007553877139031</v>
+        <v>0.6410501477819253</v>
       </c>
       <c r="L11">
-        <v>0.2774038397280805</v>
+        <v>0.1306739552340588</v>
       </c>
       <c r="M11">
-        <v>0.3094249448304325</v>
+        <v>0.2130292266956104</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.186017065984657</v>
+        <v>3.157338579624593</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.272146445056592</v>
+        <v>1.048901694308057</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.08483778800022179</v>
+        <v>0.04730232162118142</v>
       </c>
       <c r="E12">
-        <v>0.1692075332708045</v>
+        <v>0.4021543225959912</v>
       </c>
       <c r="F12">
-        <v>0.7910805452129068</v>
+        <v>0.9169057449199158</v>
       </c>
       <c r="G12">
-        <v>0.000789987338917366</v>
+        <v>0.00243957414192507</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.052952163381491</v>
+        <v>0.6554416754273689</v>
       </c>
       <c r="L12">
-        <v>0.2846361035610556</v>
+        <v>0.1326200480260837</v>
       </c>
       <c r="M12">
-        <v>0.31701583885134</v>
+        <v>0.2149299895889598</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.212001717466705</v>
+        <v>3.158257938644198</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.265957207946457</v>
+        <v>1.047431755139542</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.08451698793195561</v>
+        <v>0.04719034622339535</v>
       </c>
       <c r="E13">
-        <v>0.169523849516966</v>
+        <v>0.4023198012028768</v>
       </c>
       <c r="F13">
-        <v>0.7883469573496882</v>
+        <v>0.9165531520322503</v>
       </c>
       <c r="G13">
-        <v>0.0007902196620474005</v>
+        <v>0.002439710607321308</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.0431715476563</v>
+        <v>0.6523434269076063</v>
       </c>
       <c r="L13">
-        <v>0.2830769705774401</v>
+        <v>0.1322006626954817</v>
       </c>
       <c r="M13">
-        <v>0.3153790002206023</v>
+        <v>0.2145200900043918</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.206366509455364</v>
+        <v>3.158048050170294</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.24580574929422</v>
+        <v>1.042648368535254</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.08347081370659026</v>
+        <v>0.04682488178123378</v>
       </c>
       <c r="E14">
-        <v>0.170560611725052</v>
+        <v>0.402862374510871</v>
       </c>
       <c r="F14">
-        <v>0.7794792712271885</v>
+        <v>0.9154168765685853</v>
       </c>
       <c r="G14">
-        <v>0.0007909789377986143</v>
+        <v>0.002440157765133312</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.011287369635852</v>
+        <v>0.6422346982341764</v>
       </c>
       <c r="L14">
-        <v>0.2779981569797201</v>
+        <v>0.1308339444365032</v>
       </c>
       <c r="M14">
-        <v>0.3100485564188347</v>
+        <v>0.2131853617841628</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.18813738713402</v>
+        <v>3.157408859028351</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.233487402965636</v>
+        <v>1.039726409611319</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.08283001373884247</v>
+        <v>0.04660080313814774</v>
       </c>
       <c r="E15">
-        <v>0.1711996333742967</v>
+        <v>0.403196954372115</v>
       </c>
       <c r="F15">
-        <v>0.7740833665650513</v>
+        <v>0.9147313304470259</v>
       </c>
       <c r="G15">
-        <v>0.0007914452699373622</v>
+        <v>0.00244043328745428</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.991766682246805</v>
+        <v>0.6360392358428157</v>
       </c>
       <c r="L15">
-        <v>0.2748916572520841</v>
+        <v>0.1299975510737994</v>
       </c>
       <c r="M15">
-        <v>0.3067892898623796</v>
+        <v>0.2123693743626021</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.177084410257152</v>
+        <v>3.157052143565181</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.163265201053719</v>
+        <v>1.02310486592188</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.07915775288557114</v>
+        <v>0.04531332801987276</v>
       </c>
       <c r="E16">
-        <v>0.1749221137979866</v>
+        <v>0.4051486288447119</v>
       </c>
       <c r="F16">
-        <v>0.7436937689510756</v>
+        <v>0.9109629899116669</v>
       </c>
       <c r="G16">
-        <v>0.0007941372333112699</v>
+        <v>0.002442037150853633</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.880030190815432</v>
+        <v>0.6004812552051817</v>
       </c>
       <c r="L16">
-        <v>0.257154032106385</v>
+        <v>0.1252162448461007</v>
       </c>
       <c r="M16">
-        <v>0.2881968181703911</v>
+        <v>0.20771745790816</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.115424513320306</v>
+        <v>3.155541357548657</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.120500833014603</v>
+        <v>1.013018242296425</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.07690456036376503</v>
+        <v>0.04452051550021707</v>
       </c>
       <c r="E17">
-        <v>0.177259280713761</v>
+        <v>0.4063765855542965</v>
       </c>
       <c r="F17">
-        <v>0.7255078825583325</v>
+        <v>0.9087942196426866</v>
       </c>
       <c r="G17">
-        <v>0.0007958065664999027</v>
+        <v>0.002443043384220584</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.81158376710647</v>
+        <v>0.5786196778608712</v>
       </c>
       <c r="L17">
-        <v>0.2463266261335093</v>
+        <v>0.1222935984826421</v>
       </c>
       <c r="M17">
-        <v>0.2768630439618107</v>
+        <v>0.2048853197605354</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.079044522309175</v>
+        <v>3.155090398318833</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.096013820146851</v>
+        <v>1.007257315753321</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.07560833084431806</v>
+        <v>0.04406342039244748</v>
       </c>
       <c r="E18">
-        <v>0.178623062914312</v>
+        <v>0.4070941567745079</v>
       </c>
       <c r="F18">
-        <v>0.7152090090119003</v>
+        <v>0.9075993437629393</v>
       </c>
       <c r="G18">
-        <v>0.0007967734597876253</v>
+        <v>0.002443630362619989</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.772246463330049</v>
+        <v>0.5660280838558265</v>
       </c>
       <c r="L18">
-        <v>0.2401175127386921</v>
+        <v>0.1206164658939457</v>
       </c>
       <c r="M18">
-        <v>0.2703691875575913</v>
+        <v>0.2032643443280477</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.058630813204701</v>
+        <v>3.155005851411062</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.08774128826829</v>
+        <v>1.005313758026091</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.07516939594374605</v>
+        <v>0.04390846932619041</v>
       </c>
       <c r="E19">
-        <v>0.1790881502577726</v>
+        <v>0.4073390531377417</v>
       </c>
       <c r="F19">
-        <v>0.7117490365030363</v>
+        <v>0.9072038034081373</v>
       </c>
       <c r="G19">
-        <v>0.0007971020049549989</v>
+        <v>0.002443830517028573</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.758932383792711</v>
+        <v>0.561761819477482</v>
       </c>
       <c r="L19">
-        <v>0.2380182714424564</v>
+        <v>0.1200492893248537</v>
       </c>
       <c r="M19">
-        <v>0.268174642801597</v>
+        <v>0.202716886443767</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.051804976295102</v>
+        <v>3.155007248829349</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.125041670027827</v>
+        <v>1.014087778686246</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.07714444021400624</v>
+        <v>0.04460502476761974</v>
       </c>
       <c r="E20">
-        <v>0.1770084627285522</v>
+        <v>0.4062447000062788</v>
       </c>
       <c r="F20">
-        <v>0.727426969862961</v>
+        <v>0.9090196508231259</v>
       </c>
       <c r="G20">
-        <v>0.0007956281694674664</v>
+        <v>0.002442935418779397</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.818866646223086</v>
+        <v>0.5809486850058931</v>
       </c>
       <c r="L20">
-        <v>0.2474772751839538</v>
+        <v>0.1226043165234501</v>
       </c>
       <c r="M20">
-        <v>0.2780669205274791</v>
+        <v>0.2051859789807366</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.082863885787646</v>
+        <v>3.155120308151083</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.251719476381965</v>
+        <v>1.044051698049202</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.08377809726705721</v>
+        <v>0.04693227367130248</v>
       </c>
       <c r="E21">
-        <v>0.1702552601613627</v>
+        <v>0.4027025412422116</v>
       </c>
       <c r="F21">
-        <v>0.7820764223790206</v>
+        <v>0.9157484493043739</v>
       </c>
       <c r="G21">
-        <v>0.0007907556597564671</v>
+        <v>0.002440026085501772</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.020650555602828</v>
+        <v>0.6452046229214545</v>
       </c>
       <c r="L21">
-        <v>0.2794889984855189</v>
+        <v>0.131235224267229</v>
       </c>
       <c r="M21">
-        <v>0.3116130228289435</v>
+        <v>0.2135770763747189</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.193468075079039</v>
+        <v>3.157589350857876</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.335614241636108</v>
+        <v>1.063993474678767</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.08811380062602581</v>
+        <v>0.04844338966372419</v>
       </c>
       <c r="E22">
-        <v>0.1660190878181584</v>
+        <v>0.400487739476894</v>
       </c>
       <c r="F22">
-        <v>0.8193770776582454</v>
+        <v>0.9206140598635812</v>
       </c>
       <c r="G22">
-        <v>0.0007876277417885496</v>
+        <v>0.002438197466591283</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.152928618455576</v>
+        <v>0.6870401928241279</v>
       </c>
       <c r="L22">
-        <v>0.3006046899336496</v>
+        <v>0.1369101547630578</v>
       </c>
       <c r="M22">
-        <v>0.3337922192477549</v>
+        <v>0.2191316031180648</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.270751063620395</v>
+        <v>3.160760800447861</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.290730760927431</v>
+        <v>1.053317514136495</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.08579960796947717</v>
+        <v>0.04763779029195092</v>
       </c>
       <c r="E23">
-        <v>0.1682635894106959</v>
+        <v>0.4016606652222148</v>
       </c>
       <c r="F23">
-        <v>0.7993165478325608</v>
+        <v>0.9179743717712228</v>
       </c>
       <c r="G23">
-        <v>0.0007892921695396823</v>
+        <v>0.002439166792885695</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.082286467390702</v>
+        <v>0.6647265649364158</v>
       </c>
       <c r="L23">
-        <v>0.2893156019135006</v>
+        <v>0.1338782415607938</v>
       </c>
       <c r="M23">
-        <v>0.3219298269944559</v>
+        <v>0.21616063637601</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.229023945067468</v>
+        <v>3.158925556475708</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.12298845124738</v>
+        <v>1.013604122859732</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.0770359931740856</v>
+        <v>0.04456682216536478</v>
       </c>
       <c r="E24">
-        <v>0.1771217949302875</v>
+        <v>0.4063042893190607</v>
       </c>
       <c r="F24">
-        <v>0.7265588648430708</v>
+        <v>0.9089175714750155</v>
       </c>
       <c r="G24">
-        <v>0.0007957088003756333</v>
+        <v>0.00244298420360527</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.815574015975386</v>
+        <v>0.5798958127256242</v>
       </c>
       <c r="L24">
-        <v>0.2469570181416003</v>
+        <v>0.1224638311244064</v>
       </c>
       <c r="M24">
-        <v>0.2775225794993474</v>
+        <v>0.205050028330021</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.081135593900797</v>
+        <v>3.15510624169238</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9461905457793307</v>
+        <v>0.9723219870603259</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.06757210552608939</v>
+        <v>0.04121268910410691</v>
       </c>
       <c r="E25">
-        <v>0.1874206452341882</v>
+        <v>0.4117447350559393</v>
       </c>
       <c r="F25">
-        <v>0.6541648276536094</v>
+        <v>0.9011570612602924</v>
       </c>
       <c r="G25">
-        <v>0.000802889515140437</v>
+        <v>0.002447416393850156</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.529016206310132</v>
+        <v>0.487729534042785</v>
       </c>
       <c r="L25">
-        <v>0.201959950446593</v>
+        <v>0.1103007914044127</v>
       </c>
       <c r="M25">
-        <v>0.2305629901303163</v>
+        <v>0.1933715138762366</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.940931477289467</v>
+        <v>3.157669985308104</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_152/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_152/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.943272594242444</v>
+        <v>0.8189363631215656</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.03870760940133522</v>
+        <v>0.06058098417356206</v>
       </c>
       <c r="E2">
-        <v>0.4161238364381639</v>
+        <v>0.1956263453425411</v>
       </c>
       <c r="F2">
-        <v>0.8971675119293394</v>
+        <v>0.6053580210291614</v>
       </c>
       <c r="G2">
-        <v>0.002450953031429082</v>
+        <v>0.0008084176816671298</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.4193065313855016</v>
+        <v>1.31836562229995</v>
       </c>
       <c r="L2">
-        <v>0.1014743244794687</v>
+        <v>0.1692757768399957</v>
       </c>
       <c r="M2">
-        <v>0.1850376212670142</v>
+        <v>0.1966321955019836</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>3.165296745607179</v>
+        <v>1.852121662880364</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9244307122180544</v>
+        <v>0.7342265094668505</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.03698799021369581</v>
+        <v>0.05582270978946013</v>
       </c>
       <c r="E3">
-        <v>0.4193255635418902</v>
+        <v>0.2015679534982682</v>
       </c>
       <c r="F3">
-        <v>0.8955381632624793</v>
+        <v>0.5747490450636334</v>
       </c>
       <c r="G3">
-        <v>0.002453521676862919</v>
+        <v>0.0008123228467468999</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.3725909496973259</v>
+        <v>1.175533787887076</v>
       </c>
       <c r="L3">
-        <v>0.09557365558983122</v>
+        <v>0.1473364590754684</v>
       </c>
       <c r="M3">
-        <v>0.1795559893245127</v>
+        <v>0.1739650723230355</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>3.174041480071168</v>
+        <v>1.799931565208652</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9132807804026584</v>
+        <v>0.6828815249868967</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.03592142722550307</v>
+        <v>0.05288931299902089</v>
       </c>
       <c r="E4">
-        <v>0.4214071962284116</v>
+        <v>0.2054013297830681</v>
       </c>
       <c r="F4">
-        <v>0.8950674147691657</v>
+        <v>0.557069074823886</v>
       </c>
       <c r="G4">
-        <v>0.002455184049081051</v>
+        <v>0.0008148014648731236</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.3437399356207607</v>
+        <v>1.087714505992238</v>
       </c>
       <c r="L4">
-        <v>0.09199092158220168</v>
+        <v>0.1339492661869812</v>
       </c>
       <c r="M4">
-        <v>0.1762727489467188</v>
+        <v>0.1601866478419787</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>3.181173666974303</v>
+        <v>1.77152542539045</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9088429278881449</v>
+        <v>0.6621137879101013</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.03548412297441672</v>
+        <v>0.0516907384868972</v>
       </c>
       <c r="E5">
-        <v>0.4222846344310827</v>
+        <v>0.207009663704703</v>
       </c>
       <c r="F5">
-        <v>0.8950087838763565</v>
+        <v>0.5501300874786139</v>
       </c>
       <c r="G5">
-        <v>0.002455882970570784</v>
+        <v>0.0008158322022978056</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3319414112629602</v>
+        <v>1.05188613917079</v>
       </c>
       <c r="L5">
-        <v>0.09054113946716313</v>
+        <v>0.128512132948515</v>
       </c>
       <c r="M5">
-        <v>0.174955652528002</v>
+        <v>0.1546037848131157</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>3.184523339511458</v>
+        <v>1.76082192433509</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9081124315833904</v>
+        <v>0.6586743891617459</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.03541134825013614</v>
+        <v>0.05149151706466881</v>
       </c>
       <c r="E6">
-        <v>0.4224320947188192</v>
+        <v>0.207279506292366</v>
       </c>
       <c r="F6">
-        <v>0.8950070937166927</v>
+        <v>0.5489935164344573</v>
       </c>
       <c r="G6">
-        <v>0.002456000325794779</v>
+        <v>0.0008160046145471852</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.329979786614274</v>
+        <v>1.045934060135323</v>
       </c>
       <c r="L6">
-        <v>0.09030102325520062</v>
+        <v>0.1276103255146452</v>
       </c>
       <c r="M6">
-        <v>0.1747382120823211</v>
+        <v>0.1536785981935012</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>3.18510631994593</v>
+        <v>1.759096085885943</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.913220500838321</v>
+        <v>0.6826008287792149</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03591554037333822</v>
+        <v>0.05287316181260593</v>
       </c>
       <c r="E7">
-        <v>0.4214189115521401</v>
+        <v>0.2054228337425115</v>
       </c>
       <c r="F7">
-        <v>0.8950660847057819</v>
+        <v>0.5569744357456585</v>
       </c>
       <c r="G7">
-        <v>0.002455193387829734</v>
+        <v>0.0008148152816002074</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.3435809838269108</v>
+        <v>1.087231493518402</v>
       </c>
       <c r="L7">
-        <v>0.09197132786643891</v>
+        <v>0.1338758687451573</v>
       </c>
       <c r="M7">
-        <v>0.176254901561208</v>
+        <v>0.160111229942931</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>3.181217047196697</v>
+        <v>1.771377597593045</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9366892046107012</v>
+        <v>0.7895824771130719</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0381169201765772</v>
+        <v>0.0589426380754503</v>
       </c>
       <c r="E8">
-        <v>0.4172037947951948</v>
+        <v>0.1976363466024686</v>
       </c>
       <c r="F8">
-        <v>0.8964957815383414</v>
+        <v>0.5945639296113683</v>
       </c>
       <c r="G8">
-        <v>0.002451821052386126</v>
+        <v>0.0008097476246947029</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.4032341042013741</v>
+        <v>1.269135141542677</v>
       </c>
       <c r="L8">
-        <v>0.09943145369030049</v>
+        <v>0.1616920181453096</v>
       </c>
       <c r="M8">
-        <v>0.1831304913784173</v>
+        <v>0.18878576125568</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>3.167946011560929</v>
+        <v>1.833344865619779</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9860194417835828</v>
+        <v>1.005250705693783</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.04234806609404984</v>
+        <v>0.07076273601241212</v>
       </c>
       <c r="E9">
-        <v>0.4098542642052543</v>
+        <v>0.1838536318499973</v>
       </c>
       <c r="F9">
-        <v>0.9035031342133806</v>
+        <v>0.6778052461180977</v>
       </c>
       <c r="G9">
-        <v>0.002445881142974397</v>
+        <v>0.0008004343912130703</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.5188637703234917</v>
+        <v>1.625450599361386</v>
       </c>
       <c r="L9">
-        <v>0.114377938829918</v>
+        <v>0.2170383481500977</v>
       </c>
       <c r="M9">
-        <v>0.1972644140758462</v>
+        <v>0.2462707258984338</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.155914314167887</v>
+        <v>1.985779361533702</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.024261314769689</v>
+        <v>1.168160217496848</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.04540364513427875</v>
+        <v>0.07941483168568908</v>
       </c>
       <c r="E10">
-        <v>0.4050100383975517</v>
+        <v>0.1746580822198771</v>
       </c>
       <c r="F10">
-        <v>0.9112175817117816</v>
+        <v>0.7457912331696122</v>
       </c>
       <c r="G10">
-        <v>0.002441923445010364</v>
+        <v>0.0007939476522206488</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.6029734410539334</v>
+        <v>1.887845040765512</v>
       </c>
       <c r="L10">
-        <v>0.125550265173203</v>
+        <v>0.25839212047795</v>
       </c>
       <c r="M10">
-        <v>0.2080417054722901</v>
+        <v>0.2894935775174545</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.15561650873596</v>
+        <v>2.119646442075435</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.042089125544521</v>
+        <v>1.243448633115833</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.04678204418647169</v>
+        <v>0.08334827266445899</v>
       </c>
       <c r="E11">
-        <v>0.402926223650077</v>
+        <v>0.1706825768109379</v>
       </c>
       <c r="F11">
-        <v>0.9152851590207831</v>
+        <v>0.7784452991798787</v>
       </c>
       <c r="G11">
-        <v>0.002440210357059396</v>
+        <v>0.0007910680400897828</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.6410501477819253</v>
+        <v>2.007553877139117</v>
       </c>
       <c r="L11">
-        <v>0.1306739552340588</v>
+        <v>0.2774038397280378</v>
       </c>
       <c r="M11">
-        <v>0.2130292266956104</v>
+        <v>0.3094249448304254</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.157338579624593</v>
+        <v>2.186017065984686</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.048901694308057</v>
+        <v>1.272146445056563</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.04730232162118142</v>
+        <v>0.08483778799999442</v>
       </c>
       <c r="E12">
-        <v>0.4021543225959912</v>
+        <v>0.1692075332708152</v>
       </c>
       <c r="F12">
-        <v>0.9169057449199158</v>
+        <v>0.7910805452129068</v>
       </c>
       <c r="G12">
-        <v>0.00243957414192507</v>
+        <v>0.0007899873388619591</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.6554416754273689</v>
+        <v>2.052952163381406</v>
       </c>
       <c r="L12">
-        <v>0.1326200480260837</v>
+        <v>0.2846361035609704</v>
       </c>
       <c r="M12">
-        <v>0.2149299895889598</v>
+        <v>0.3170158388513329</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.158257938644198</v>
+        <v>2.212001717466649</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.047431755139542</v>
+        <v>1.265957207946286</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.04719034622339535</v>
+        <v>0.08451698793183482</v>
       </c>
       <c r="E13">
-        <v>0.4023198012028768</v>
+        <v>0.1695238495169793</v>
       </c>
       <c r="F13">
-        <v>0.9165531520322503</v>
+        <v>0.7883469573497024</v>
       </c>
       <c r="G13">
-        <v>0.002439710607321308</v>
+        <v>0.0007902196620764221</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.6523434269076063</v>
+        <v>2.043171547656357</v>
       </c>
       <c r="L13">
-        <v>0.1322006626954817</v>
+        <v>0.2830769705774401</v>
       </c>
       <c r="M13">
-        <v>0.2145200900043918</v>
+        <v>0.3153790002206094</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.158048050170294</v>
+        <v>2.206366509455336</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.042648368535254</v>
+        <v>1.245805749294078</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.04682488178123378</v>
+        <v>0.08347081370648368</v>
       </c>
       <c r="E14">
-        <v>0.402862374510871</v>
+        <v>0.1705606117250582</v>
       </c>
       <c r="F14">
-        <v>0.9154168765685853</v>
+        <v>0.7794792712272027</v>
       </c>
       <c r="G14">
-        <v>0.002440157765133312</v>
+        <v>0.0007909789378275124</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.6422346982341764</v>
+        <v>2.011287369635937</v>
       </c>
       <c r="L14">
-        <v>0.1308339444365032</v>
+        <v>0.2779981569797911</v>
       </c>
       <c r="M14">
-        <v>0.2131853617841628</v>
+        <v>0.3100485564188276</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.157408859028351</v>
+        <v>2.188137387133906</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.039726409611319</v>
+        <v>1.233487402965665</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.04660080313814774</v>
+        <v>0.08283001373872168</v>
       </c>
       <c r="E15">
-        <v>0.403196954372115</v>
+        <v>0.1711996333742976</v>
       </c>
       <c r="F15">
-        <v>0.9147313304470259</v>
+        <v>0.7740833665650513</v>
       </c>
       <c r="G15">
-        <v>0.00244043328745428</v>
+        <v>0.0007914452699098286</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.6360392358428157</v>
+        <v>1.991766682246833</v>
       </c>
       <c r="L15">
-        <v>0.1299975510737994</v>
+        <v>0.2748916572521267</v>
       </c>
       <c r="M15">
-        <v>0.2123693743626021</v>
+        <v>0.3067892898623796</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.157052143565181</v>
+        <v>2.177084410257095</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02310486592188</v>
+        <v>1.163265201053605</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.04531332801987276</v>
+        <v>0.07915775288569193</v>
       </c>
       <c r="E16">
-        <v>0.4051486288447119</v>
+        <v>0.1749221137979973</v>
       </c>
       <c r="F16">
-        <v>0.9109629899116669</v>
+        <v>0.7436937689510756</v>
       </c>
       <c r="G16">
-        <v>0.002442037150853633</v>
+        <v>0.0007941372333113534</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.6004812552051817</v>
+        <v>1.880030190815233</v>
       </c>
       <c r="L16">
-        <v>0.1252162448461007</v>
+        <v>0.2571540321062571</v>
       </c>
       <c r="M16">
-        <v>0.20771745790816</v>
+        <v>0.2881968181704053</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.155541357548657</v>
+        <v>2.115424513320249</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.013018242296425</v>
+        <v>1.120500833014688</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.04452051550021707</v>
+        <v>0.0769045603637224</v>
       </c>
       <c r="E17">
-        <v>0.4063765855542965</v>
+        <v>0.1772592807137583</v>
       </c>
       <c r="F17">
-        <v>0.9087942196426866</v>
+        <v>0.7255078825583183</v>
       </c>
       <c r="G17">
-        <v>0.002443043384220584</v>
+        <v>0.0007958065665547431</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.5786196778608712</v>
+        <v>1.811583767106526</v>
       </c>
       <c r="L17">
-        <v>0.1222935984826421</v>
+        <v>0.2463266261335519</v>
       </c>
       <c r="M17">
-        <v>0.2048853197605354</v>
+        <v>0.2768630439618036</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.155090398318833</v>
+        <v>2.079044522309147</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.007257315753321</v>
+        <v>1.096013820146879</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.04406342039244748</v>
+        <v>0.0756083308444957</v>
       </c>
       <c r="E18">
-        <v>0.4070941567745079</v>
+        <v>0.1786230629143013</v>
       </c>
       <c r="F18">
-        <v>0.9075993437629393</v>
+        <v>0.7152090090119003</v>
       </c>
       <c r="G18">
-        <v>0.002443630362619989</v>
+        <v>0.0007967734598151597</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.5660280838558265</v>
+        <v>1.772246463330134</v>
       </c>
       <c r="L18">
-        <v>0.1206164658939457</v>
+        <v>0.2401175127387205</v>
       </c>
       <c r="M18">
-        <v>0.2032643443280477</v>
+        <v>0.2703691875575984</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.155005851411062</v>
+        <v>2.058630813204672</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.005313758026091</v>
+        <v>1.087741288268376</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.04390846932619041</v>
+        <v>0.07516939594350447</v>
       </c>
       <c r="E19">
-        <v>0.4073390531377417</v>
+        <v>0.1790881502578232</v>
       </c>
       <c r="F19">
-        <v>0.9072038034081373</v>
+        <v>0.7117490365030363</v>
       </c>
       <c r="G19">
-        <v>0.002443830517028573</v>
+        <v>0.0007971020049827661</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.561761819477482</v>
+        <v>1.758932383792541</v>
       </c>
       <c r="L19">
-        <v>0.1200492893248537</v>
+        <v>0.238018271442499</v>
       </c>
       <c r="M19">
-        <v>0.202716886443767</v>
+        <v>0.268174642801597</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.155007248829349</v>
+        <v>2.05180497629496</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.014087778686246</v>
+        <v>1.125041670027741</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.04460502476761974</v>
+        <v>0.0771444402138215</v>
       </c>
       <c r="E20">
-        <v>0.4062447000062788</v>
+        <v>0.1770084627285717</v>
       </c>
       <c r="F20">
-        <v>0.9090196508231259</v>
+        <v>0.727426969862961</v>
       </c>
       <c r="G20">
-        <v>0.002442935418779397</v>
+        <v>0.0007956281694118429</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.5809486850058931</v>
+        <v>1.818866646223142</v>
       </c>
       <c r="L20">
-        <v>0.1226043165234501</v>
+        <v>0.2474772751839396</v>
       </c>
       <c r="M20">
-        <v>0.2051859789807366</v>
+        <v>0.2780669205274933</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.155120308151083</v>
+        <v>2.082863885787702</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.044051698049202</v>
+        <v>1.251719476382135</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.04693227367130248</v>
+        <v>0.0837780972670501</v>
       </c>
       <c r="E21">
-        <v>0.4027025412422116</v>
+        <v>0.1702552601613503</v>
       </c>
       <c r="F21">
-        <v>0.9157484493043739</v>
+        <v>0.7820764223790064</v>
       </c>
       <c r="G21">
-        <v>0.002440026085501772</v>
+        <v>0.0007907556597287619</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.6452046229214545</v>
+        <v>2.020650555602685</v>
       </c>
       <c r="L21">
-        <v>0.131235224267229</v>
+        <v>0.2794889984854194</v>
       </c>
       <c r="M21">
-        <v>0.2135770763747189</v>
+        <v>0.3116130228289578</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.157589350857876</v>
+        <v>2.193468075079011</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.063993474678767</v>
+        <v>1.33561424163625</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.04844338966372419</v>
+        <v>0.08811380062591923</v>
       </c>
       <c r="E22">
-        <v>0.400487739476894</v>
+        <v>0.1660190878181629</v>
       </c>
       <c r="F22">
-        <v>0.9206140598635812</v>
+        <v>0.8193770776582454</v>
       </c>
       <c r="G22">
-        <v>0.002438197466591283</v>
+        <v>0.0007876277417897792</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.6870401928241279</v>
+        <v>2.152928618455718</v>
       </c>
       <c r="L22">
-        <v>0.1369101547630578</v>
+        <v>0.3006046899336212</v>
       </c>
       <c r="M22">
-        <v>0.2191316031180648</v>
+        <v>0.3337922192477549</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.160760800447861</v>
+        <v>2.270751063620395</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.053317514136495</v>
+        <v>1.290730760927261</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.04763779029195092</v>
+        <v>0.08579960796941322</v>
       </c>
       <c r="E23">
-        <v>0.4016606652222148</v>
+        <v>0.1682635894106994</v>
       </c>
       <c r="F23">
-        <v>0.9179743717712228</v>
+        <v>0.7993165478325608</v>
       </c>
       <c r="G23">
-        <v>0.002439166792885695</v>
+        <v>0.0007892921694819824</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.6647265649364158</v>
+        <v>2.08228646739056</v>
       </c>
       <c r="L23">
-        <v>0.1338782415607938</v>
+        <v>0.2893156019135006</v>
       </c>
       <c r="M23">
-        <v>0.21616063637601</v>
+        <v>0.321929826994463</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.158925556475708</v>
+        <v>2.229023945067382</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.013604122859732</v>
+        <v>1.122988451247295</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.04456682216536478</v>
+        <v>0.07703599317392218</v>
       </c>
       <c r="E24">
-        <v>0.4063042893190607</v>
+        <v>0.177121794930259</v>
       </c>
       <c r="F24">
-        <v>0.9089175714750155</v>
+        <v>0.7265588648430708</v>
       </c>
       <c r="G24">
-        <v>0.00244298420360527</v>
+        <v>0.000795708800375732</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.5798958127256242</v>
+        <v>1.815574015975415</v>
       </c>
       <c r="L24">
-        <v>0.1224638311244064</v>
+        <v>0.2469570181415719</v>
       </c>
       <c r="M24">
-        <v>0.205050028330021</v>
+        <v>0.2775225794993617</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.15510624169238</v>
+        <v>2.081135593900825</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9723219870603259</v>
+        <v>0.9461905457791886</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.04121268910410691</v>
+        <v>0.06757210552614623</v>
       </c>
       <c r="E25">
-        <v>0.4117447350559393</v>
+        <v>0.18742064523419</v>
       </c>
       <c r="F25">
-        <v>0.9011570612602924</v>
+        <v>0.6541648276535952</v>
       </c>
       <c r="G25">
-        <v>0.002447416393850156</v>
+        <v>0.0008028895151410701</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.487729534042785</v>
+        <v>1.529016206310047</v>
       </c>
       <c r="L25">
-        <v>0.1103007914044127</v>
+        <v>0.2019599504465788</v>
       </c>
       <c r="M25">
-        <v>0.1933715138762366</v>
+        <v>0.2305629901303163</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>3.157669985308104</v>
+        <v>1.940931477289354</v>
       </c>
     </row>
   </sheetData>
